--- a/results/FrequencyTables/26990633_LTR-Q.xlsx
+++ b/results/FrequencyTables/26990633_LTR-Q.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0053680981595092</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00230061349693252</v>
       </c>
       <c r="D2">
-        <v>0.0645161290322581</v>
+        <v>0.0498466257668712</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.031441717791411</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00230061349693252</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00920245398773006</v>
       </c>
       <c r="H2">
-        <v>0.010752688172043</v>
+        <v>0.00920245398773006</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00230061349693252</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00920245398773006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.996165644171779</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00306748466257669</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00153374233128834</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00460122699386503</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.941717791411043</v>
       </c>
       <c r="S2">
-        <v>0.010752688172043</v>
+        <v>0.0107361963190184</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00460122699386503</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00996932515337423</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.849693251533742</v>
       </c>
       <c r="W2">
-        <v>0.010752688172043</v>
+        <v>0.159509202453988</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0368098159509202</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,19 +539,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.976993865030675</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.973159509202454</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00613496932515337</v>
       </c>
       <c r="E3">
-        <v>0.989247311827957</v>
+        <v>0.953220858895706</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0184049079754601</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -569,43 +569,43 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.980061349693252</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00153374233128834</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00460122699386503</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.997699386503067</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.977760736196319</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0191717791411043</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0176380368098159</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0145705521472393</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0237730061349693</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0153374233128834</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0191717791411043</v>
       </c>
       <c r="D4">
-        <v>0.935483870967742</v>
+        <v>0.943251533742331</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00230061349693252</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.989263803680982</v>
       </c>
       <c r="H4">
-        <v>0.989247311827957</v>
+        <v>0.989263803680982</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.996932515337423</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.990030674846626</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0153374233128834</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0145705521472393</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0153374233128834</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0138036809815951</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0575153374233129</v>
       </c>
       <c r="S4">
-        <v>0.989247311827957</v>
+        <v>0.983128834355828</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.975460122699387</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.968558282208589</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.131901840490798</v>
       </c>
       <c r="W4">
-        <v>0.989247311827957</v>
+        <v>0.825153374233129</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.93941717791411</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00230061349693252</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0053680981595092</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="E5">
-        <v>0.010752688172043</v>
+        <v>0.0153374233128834</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.976993865030675</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.998466257668712</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.980061349693252</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.977760736196319</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0053680981595092</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000766871165644172</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00383435582822086</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0145705521472393</v>
       </c>
       <c r="X5">
         <v>0</v>
